--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3810.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3810.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.729723296638882</v>
+        <v>4.937071323394775</v>
       </c>
       <c r="B1">
-        <v>2.204282292923564</v>
+        <v>6.741384983062744</v>
       </c>
       <c r="C1">
-        <v>3.265770346794604</v>
+        <v>5.762762069702148</v>
       </c>
       <c r="D1">
-        <v>4.125886706351639</v>
+        <v>4.924643039703369</v>
       </c>
       <c r="E1">
-        <v>0.6252463987868325</v>
+        <v>2.070333003997803</v>
       </c>
     </row>
   </sheetData>
